--- a/Entrega04/ConstanzaInostroza_Entrega04/Datos.xlsx
+++ b/Entrega04/ConstanzaInostroza_Entrega04/Datos.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\GRÁFICA\grupo\Entrega04\ConstanzaInostroza_Entrega04\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B9765E5-3EBB-41C0-B92C-BF47DAB583D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +24,112 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>EDAD PROMEDIO DE LA POBLACION CHILENA</t>
+  </si>
+  <si>
+    <t>A–o</t>
+  </si>
+  <si>
+    <t>19.4</t>
+  </si>
+  <si>
+    <t>19.49</t>
+  </si>
+  <si>
+    <t>19.34</t>
+  </si>
+  <si>
+    <t>19.29</t>
+  </si>
+  <si>
+    <t>19.7</t>
+  </si>
+  <si>
+    <t>20.67</t>
+  </si>
+  <si>
+    <t>21.97</t>
+  </si>
+  <si>
+    <t>23.42</t>
+  </si>
+  <si>
+    <t>24.83</t>
+  </si>
+  <si>
+    <t>26.32</t>
+  </si>
+  <si>
+    <t>28.03</t>
+  </si>
+  <si>
+    <t>29.94</t>
+  </si>
+  <si>
+    <t>31.72</t>
+  </si>
+  <si>
+    <t>33.33</t>
+  </si>
+  <si>
+    <t>34.68</t>
+  </si>
+  <si>
+    <t>36.94</t>
+  </si>
+  <si>
+    <t>39.46</t>
+  </si>
+  <si>
+    <t>42.03</t>
+  </si>
+  <si>
+    <t>44.5</t>
+  </si>
+  <si>
+    <t>46.82</t>
+  </si>
+  <si>
+    <t>48.88</t>
+  </si>
+  <si>
+    <t>50.65</t>
+  </si>
+  <si>
+    <t>52.17</t>
+  </si>
+  <si>
+    <t>53.75</t>
+  </si>
+  <si>
+    <t>55.31</t>
+  </si>
+  <si>
+    <t>56.69</t>
+  </si>
+  <si>
+    <t>57.45</t>
+  </si>
+  <si>
+    <t>57.53</t>
+  </si>
+  <si>
+    <t>57.47</t>
+  </si>
+  <si>
+    <t>57.42</t>
+  </si>
+  <si>
+    <t>57.43</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +440,272 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>2100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>